--- a/current_experiments/LOGS/experiment_001_logs.xlsx
+++ b/current_experiments/LOGS/experiment_001_logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W00Y0NG\PRGM2\2025BCI\current_experiments\LOGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9A1C05-B05E-42BC-8069-593584927911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DB8F29-EFE7-43FB-B7FB-9B40A1B723AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>항목</t>
   </si>
@@ -186,6 +186,14 @@
   </si>
   <si>
     <t>L1 정규화, LDA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>904 -&gt; 3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-05-07 ~ 2025-05-09</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -221,12 +229,18 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -303,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -336,6 +350,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -611,10 +631,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:L11"/>
+  <dimension ref="B1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -698,8 +718,8 @@
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8">
-        <v>45784</v>
+      <c r="C4" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -863,7 +883,7 @@
       <c r="H9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J9" s="1">
@@ -892,7 +912,7 @@
       <c r="H10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J10" s="1">
@@ -909,26 +929,73 @@
       <c r="C11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="12">
         <v>9</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="12">
         <v>0.90620000000000001</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="12">
         <v>0.89580000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.89059999999999995</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="E13" s="1">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>
